--- a/inst/extdata/examples/xlsx/footnote-example.xlsx
+++ b/inst/extdata/examples/xlsx/footnote-example.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">lock</t>
@@ -518,7 +524,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -536,16 +550,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -1281,7 +1295,7 @@
         <v>57000</v>
       </c>
       <c r="B54" t="n">
-        <v>989.620100000001</v>
+        <v>989.6201</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1295,7 +1309,7 @@
         <v>58000</v>
       </c>
       <c r="B55" t="n">
-        <v>922.120100000001</v>
+        <v>922.1201</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
